--- a/data_excel/163.xlsx
+++ b/data_excel/163.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>妹妹</t>
   </si>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -336,11 +340,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -354,6 +373,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -659,7 +679,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -883,15 +903,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/163.xlsx
+++ b/data_excel/163.xlsx
@@ -81,9 +81,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -166,6 +163,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +680,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -692,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -701,18 +702,18 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -721,18 +722,18 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -741,18 +742,18 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -761,18 +762,18 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -781,18 +782,18 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -801,12 +802,12 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -826,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,29 +901,29 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,12 +934,12 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>

--- a/data_excel/163.xlsx
+++ b/data_excel/163.xlsx
@@ -99,10 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特點</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -707,13 +707,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -722,18 +722,18 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -782,18 +782,18 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -802,12 +802,12 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -852,15 +852,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="C11" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/163.xlsx
+++ b/data_excel/163.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>妹妹</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,12 +684,12 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -705,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -718,8 +722,8 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -819,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -830,12 +834,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
